--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1049630.391054546</v>
+        <v>-1053770.097468503</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892732</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791239</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13011154.30459611</v>
+        <v>13008204.40764402</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>138.6791190676321</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>181.5953654583269</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17.59637975615592</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>82.82916549804762</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>108.1045920014102</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -832,7 +832,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.29171373991304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>181.9821328441573</v>
       </c>
       <c r="C5" t="n">
-        <v>157.9912984726298</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -990,7 +990,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>24.57725165965049</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>110.1992117372344</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -1063,10 +1063,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.588791836555664</v>
+        <v>46.81414976209473</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>193.6677438604205</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>147.5974856479707</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>86.66182304052531</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>38.42526832431128</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>200.7500824422404</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>34.3325345750214</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>39.77075371915591</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>111.4171472899454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1610,19 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>308.9053727996753</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>65.87543334372785</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>100.667588292751</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1768,10 +1768,10 @@
         <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>10.24356262881595</v>
       </c>
       <c r="E16" t="n">
-        <v>56.95470364158147</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>84.67436304442481</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
@@ -1844,25 +1844,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190359</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815727</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619107</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383889</v>
+        <v>24.17382596574964</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828902</v>
+        <v>52.06849973564977</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970372</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086852</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158947</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431734</v>
+        <v>70.57601873167809</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459975</v>
+        <v>55.7231469819605</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643948</v>
+        <v>41.29686219380022</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931859</v>
+        <v>41.22330424667933</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908586</v>
+        <v>42.9727556664466</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147799</v>
+        <v>53.79159358883874</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805003</v>
+        <v>41.14384575541078</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922196</v>
+        <v>18.98356133658271</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367788</v>
+        <v>9.882059701038628</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792052</v>
+        <v>88.00800320656595</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.581941540738</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546738</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221365</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988129</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3272,7 +3272,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1600.219428693739</v>
+        <v>627.2307618041186</v>
       </c>
       <c r="C2" t="n">
-        <v>1600.219428693739</v>
+        <v>234.0552603070492</v>
       </c>
       <c r="D2" t="n">
-        <v>1600.219428693739</v>
+        <v>234.0552603070492</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.635903810283</v>
+        <v>234.0552603070492</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>50.62559822793116</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1201.71031657295</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465279</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675971</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023271</v>
+        <v>1813.668821661858</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023271</v>
+        <v>1813.668821661858</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023271</v>
+        <v>1813.668821661858</v>
       </c>
       <c r="W2" t="n">
-        <v>2136.790056023271</v>
+        <v>1813.668821661858</v>
       </c>
       <c r="X2" t="n">
-        <v>2136.790056023271</v>
+        <v>1424.216216594914</v>
       </c>
       <c r="Y2" t="n">
-        <v>1740.299346943872</v>
+        <v>1027.725507515516</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021442</v>
+        <v>707.9891204222756</v>
       </c>
       <c r="C3" t="n">
-        <v>655.8134179021442</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D3" t="n">
-        <v>525.7244505236246</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>389.2779596345123</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>264.8461535176441</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653872</v>
+        <v>525.0693326546516</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653872</v>
+        <v>525.0693326546516</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>921.5731989359438</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545631</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492403</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.72766086347</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996757</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675983</v>
+        <v>887.3033373467683</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431056</v>
+        <v>707.9891204222756</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.0756480823365</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="C4" t="n">
-        <v>369.0756480823365</v>
+        <v>833.7537117207087</v>
       </c>
       <c r="D4" t="n">
-        <v>369.0756480823365</v>
+        <v>678.1205986232235</v>
       </c>
       <c r="E4" t="n">
-        <v>369.0756480823365</v>
+        <v>522.561786482426</v>
       </c>
       <c r="F4" t="n">
-        <v>211.7497132953094</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475499</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V4" t="n">
-        <v>678.9633367571316</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="W4" t="n">
-        <v>395.6329346883093</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="X4" t="n">
-        <v>395.6329346883093</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.0756480823365</v>
+        <v>942.9502692978907</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>767.4367364182788</v>
+        <v>1246.136666978355</v>
       </c>
       <c r="C5" t="n">
-        <v>607.8495662439052</v>
+        <v>852.9611654812857</v>
       </c>
       <c r="D5" t="n">
-        <v>607.8495662439052</v>
+        <v>467.5200366979534</v>
       </c>
       <c r="E5" t="n">
-        <v>607.8495662439052</v>
+        <v>467.5200366979534</v>
       </c>
       <c r="F5" t="n">
-        <v>190.9551277738829</v>
+        <v>50.62559822793116</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475499</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253956</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354884</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.71031657295</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465279</v>
+        <v>1992.097946913173</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>1992.097946913173</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023271</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023271</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="U5" t="n">
-        <v>1881.03732645787</v>
+        <v>1819.409608251518</v>
       </c>
       <c r="V5" t="n">
-        <v>1538.930517161388</v>
+        <v>1819.409608251518</v>
       </c>
       <c r="W5" t="n">
-        <v>1167.931482129676</v>
+        <v>1819.409608251518</v>
       </c>
       <c r="X5" t="n">
-        <v>1167.931482129676</v>
+        <v>1429.957003184575</v>
       </c>
       <c r="Y5" t="n">
-        <v>1167.931482129676</v>
+        <v>1429.957003184575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>754.5642261353869</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="C6" t="n">
-        <v>603.9099956954791</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>473.8210283169594</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>337.3745374278471</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>212.942731310979</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>92.8829133828434</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>638.184314874379</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>921.5731989359438</v>
       </c>
       <c r="N6" t="n">
-        <v>1940.417878182859</v>
+        <v>921.5731989359438</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182859</v>
+        <v>1435.175877545631</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>2050.33683109</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>1873.353019288908</v>
       </c>
       <c r="U6" t="n">
-        <v>1727.639102646475</v>
+        <v>1663.28987596755</v>
       </c>
       <c r="V6" t="n">
-        <v>1505.099101017542</v>
+        <v>1440.749874338617</v>
       </c>
       <c r="W6" t="n">
-        <v>1274.981855150829</v>
+        <v>1210.632628471904</v>
       </c>
       <c r="X6" t="n">
-        <v>1085.674777500841</v>
+        <v>1021.325550821916</v>
       </c>
       <c r="Y6" t="n">
-        <v>906.3605605763482</v>
+        <v>842.0113338974229</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.2595894695633</v>
+        <v>692.8471655187282</v>
       </c>
       <c r="C7" t="n">
-        <v>199.0544715355525</v>
+        <v>522.6420475847174</v>
       </c>
       <c r="D7" t="n">
-        <v>199.0544715355525</v>
+        <v>522.6420475847174</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475499</v>
+        <v>367.0832354439199</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>209.7573006568928</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.13418548044</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.13418548044</v>
       </c>
       <c r="U7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.13418548044</v>
       </c>
       <c r="V7" t="n">
-        <v>555.0623473897086</v>
+        <v>740.13418548044</v>
       </c>
       <c r="W7" t="n">
-        <v>555.0623473897086</v>
+        <v>740.13418548044</v>
       </c>
       <c r="X7" t="n">
-        <v>555.0623473897086</v>
+        <v>740.13418548044</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.4676081608645</v>
+        <v>692.8471655187282</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1279.953688967018</v>
+        <v>658.0888411972185</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.953688967018</v>
+        <v>264.913339700149</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2064.796883612205</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2142.147902636597</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V8" t="n">
-        <v>1800.041093340115</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="W8" t="n">
-        <v>1429.042058308403</v>
+        <v>1448.036191975559</v>
       </c>
       <c r="X8" t="n">
-        <v>1279.953688967018</v>
+        <v>1058.583586908615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1279.953688967018</v>
+        <v>1058.583586908615</v>
       </c>
     </row>
     <row r="9">
@@ -4890,10 +4890,10 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1443.506853769802</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
         <v>1960.027136360783</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.1174559270767</v>
+        <v>390.5759872032662</v>
       </c>
       <c r="C10" t="n">
-        <v>360.1174559270767</v>
+        <v>390.5759872032662</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1174559270767</v>
+        <v>390.5759872032662</v>
       </c>
       <c r="E10" t="n">
-        <v>360.1174559270767</v>
+        <v>235.0171750624687</v>
       </c>
       <c r="F10" t="n">
-        <v>202.7915211400496</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>861.2227976526665</v>
       </c>
       <c r="T10" t="n">
-        <v>622.0429194582225</v>
+        <v>861.2227976526665</v>
       </c>
       <c r="U10" t="n">
-        <v>622.0429194582225</v>
+        <v>575.7840058945675</v>
       </c>
       <c r="V10" t="n">
-        <v>583.2295171104333</v>
+        <v>575.7840058945675</v>
       </c>
       <c r="W10" t="n">
-        <v>583.2295171104333</v>
+        <v>575.7840058945675</v>
       </c>
       <c r="X10" t="n">
-        <v>583.2295171104333</v>
+        <v>575.7840058945675</v>
       </c>
       <c r="Y10" t="n">
-        <v>360.1174559270767</v>
+        <v>575.7840058945675</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1914.621352869571</v>
+        <v>1346.758074478048</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816803</v>
+        <v>1025.378848127172</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>711.7339944900339</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442403</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G11" t="n">
         <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3071.277057352219</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>3071.277057352219</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2887.320602933012</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723525</v>
+        <v>2617.010068782724</v>
       </c>
       <c r="W11" t="n">
-        <v>2556.972116723525</v>
+        <v>2317.807308897205</v>
       </c>
       <c r="X11" t="n">
-        <v>2239.315786802776</v>
+        <v>2000.150978976455</v>
       </c>
       <c r="Y11" t="n">
-        <v>1914.621352869571</v>
+        <v>1675.456545043251</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5127,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>487.4958349961664</v>
+        <v>327.8691030939129</v>
       </c>
       <c r="C13" t="n">
-        <v>389.0869922083496</v>
+        <v>327.8691030939129</v>
       </c>
       <c r="D13" t="n">
-        <v>389.0869922083496</v>
+        <v>327.8691030939129</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083496</v>
+        <v>244.1065660993093</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675164</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5203,7 +5203,7 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814508</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128936</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.167348517031</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840489</v>
+        <v>741.8597555915622</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614206</v>
+        <v>530.3256286689336</v>
       </c>
       <c r="X13" t="n">
-        <v>713.4501515614206</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="Y13" t="n">
-        <v>600.9075785412738</v>
+        <v>368.0415815981108</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.222718167679</v>
+        <v>1434.218555009979</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1112.839328659104</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1112.839328659104</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>782.0520789218418</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>128.659969465457</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>3105.956385205776</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>3004.271952586837</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X14" t="n">
-        <v>2686.615622666087</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y14" t="n">
-        <v>2361.921188732882</v>
+        <v>1762.917025575182</v>
       </c>
     </row>
     <row r="15">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>448.7226219791503</v>
+        <v>317.7028133078934</v>
       </c>
       <c r="C16" t="n">
-        <v>350.3137791913334</v>
+        <v>219.2939705200765</v>
       </c>
       <c r="D16" t="n">
-        <v>266.4769412400422</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="E16" t="n">
         <v>208.9469375616769</v>
@@ -5461,25 +5461,25 @@
         <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814508</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128936</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.167348517031</v>
+        <v>988.1475398457737</v>
       </c>
       <c r="V16" t="n">
-        <v>924.9842784840489</v>
+        <v>793.9644698127919</v>
       </c>
       <c r="W16" t="n">
-        <v>713.4501515614204</v>
+        <v>582.4303428901635</v>
       </c>
       <c r="X16" t="n">
-        <v>713.4501515614204</v>
+        <v>582.4303428901635</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.1343655242576</v>
+        <v>431.1145568530007</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924248</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5540,25 +5540,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222422</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184705</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567345</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,7 +5771,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
         <v>3105.956385205777</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.156408878212</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,13 +5911,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
         <v>806.6193906797589</v>
@@ -5926,34 +5926,34 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6075,7 +6075,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960409</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072222</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
         <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1739.339056658944</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647881</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,16 +6257,16 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,25 +6297,25 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>468.1643128146575</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M27" t="n">
-        <v>1095.935962441339</v>
+        <v>1133.990636856185</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645896</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993068</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.38072581081</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835477</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>292.5019091060128</v>
       </c>
       <c r="K32" t="n">
-        <v>726.6260980185714</v>
+        <v>763.1363857084577</v>
       </c>
       <c r="L32" t="n">
-        <v>1219.9463897371</v>
+        <v>1256.456677426987</v>
       </c>
       <c r="M32" t="n">
-        <v>1765.947289781681</v>
+        <v>1802.457577471567</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.758573419143</v>
+        <v>2330.268861109029</v>
       </c>
       <c r="O32" t="n">
-        <v>2733.798174311471</v>
+        <v>2770.308462001358</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170064</v>
+        <v>3118.49595413288</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3303.341514273829</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117252</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939828</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>326.3973748001467</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>809.9634606984599</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>809.9634606984599</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929701</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918666</v>
+        <v>309.3853606404848</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.671358424525</v>
       </c>
       <c r="E34" t="n">
-        <v>254.058261612313</v>
+        <v>226.0316571652529</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597513</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407223</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431918</v>
+        <v>86.73045008374172</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082764</v>
+        <v>389.5437325908929</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736106</v>
+        <v>687.48743150414</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>982.3291861103323</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673598</v>
+        <v>1256.686073727024</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376592</v>
+        <v>1376.562239503602</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873653</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387755</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.10558445183</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250161</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395518</v>
+        <v>835.7257283273657</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400687</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045772</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.960275502746</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6953,7 +6953,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6965,19 +6965,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7011,7 +7011,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>939.5504151240295</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162811</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7199,22 +7199,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7333,19 +7333,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,22 +7436,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>318.9689542635005</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214671</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7804,7 +7804,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031230018</v>
       </c>
       <c r="K46" t="n">
         <v>149.5338114222421</v>
@@ -7985,13 +7985,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>312.6161996011381</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>657.8797217754527</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>93.76504805760348</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886039</v>
+        <v>485.8810686938557</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431187</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>246.3235116806337</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>228.4021235736914</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,22 +8295,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837492</v>
+        <v>378.6385200912966</v>
       </c>
       <c r="N6" t="n">
-        <v>532.0824356801704</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431187</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>454.191973973224</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8538,13 +8538,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>577.0069902189997</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>507.6329599720908</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8775,10 +8775,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>117.4945034435369</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,22 +9951,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>165.878839589121</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276326</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>349.0412045852375</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10592,7 +10592,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
@@ -10899,25 +10899,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>376.3651575480042</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,25 +11136,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>349.0412045852374</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>117.4945034435369</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>117.4153516451264</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>59.4375725386066</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>72.5068723905004</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.38548088684573</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>32.74180889091482</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362789</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>195.5431439939124</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>72.75490694296248</v>
       </c>
       <c r="E16" t="n">
-        <v>25.97020798307607</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1136341.576384781</v>
+        <v>1134837.70735038</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1136341.576384781</v>
+        <v>1134837.70735038</v>
       </c>
     </row>
     <row r="4">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180332.1780933567</v>
+        <v>180332.1780933568</v>
       </c>
       <c r="C2" t="n">
         <v>180332.1780933568</v>
       </c>
       <c r="D2" t="n">
-        <v>180332.1780933568</v>
+        <v>180332.1780933567</v>
       </c>
       <c r="E2" t="n">
-        <v>159359.0234244008</v>
+        <v>159359.0234244007</v>
       </c>
       <c r="F2" t="n">
         <v>159359.0234244008</v>
       </c>
       <c r="G2" t="n">
-        <v>180332.1780933569</v>
+        <v>180332.1780933568</v>
       </c>
       <c r="H2" t="n">
-        <v>180332.1780933567</v>
+        <v>180332.1780933568</v>
       </c>
       <c r="I2" t="n">
         <v>180332.1780933569</v>
       </c>
       <c r="J2" t="n">
-        <v>180332.1780933567</v>
+        <v>180332.1780933568</v>
       </c>
       <c r="K2" t="n">
-        <v>180332.1780933568</v>
+        <v>180332.1780933569</v>
       </c>
       <c r="L2" t="n">
-        <v>180332.1780933572</v>
+        <v>180332.1780933569</v>
       </c>
       <c r="M2" t="n">
         <v>180332.1780933569</v>
@@ -26353,7 +26353,7 @@
         <v>180332.1780933568</v>
       </c>
       <c r="P2" t="n">
-        <v>180332.1780933569</v>
+        <v>180332.1780933568</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.42953401372</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668188</v>
+        <v>47425.32553668193</v>
       </c>
       <c r="H3" t="n">
-        <v>1.85189012250345e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728546</v>
+        <v>62456.24177539691</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962295</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277128</v>
+        <v>27767.69404277126</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907737</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907737</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>138605.9604845214</v>
+        <v>138605.9604845213</v>
       </c>
       <c r="F4" t="n">
         <v>138605.9604845214</v>
@@ -26433,7 +26433,7 @@
         <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
         <v>186364.8769761035</v>
@@ -26445,7 +26445,7 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761036</v>
@@ -26454,7 +26454,7 @@
         <v>186364.8769761035</v>
       </c>
       <c r="O4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
         <v>186364.8769761035</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551967</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173851</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290111.6823874641</v>
+        <v>-285459.462766289</v>
       </c>
       <c r="C6" t="n">
-        <v>-107906.7340956081</v>
+        <v>-111600.8057322341</v>
       </c>
       <c r="D6" t="n">
-        <v>-115651.3147992286</v>
+        <v>-123387.6040226205</v>
       </c>
       <c r="E6" t="n">
-        <v>-144555.5182340057</v>
+        <v>-144765.2497806952</v>
       </c>
       <c r="F6" t="n">
-        <v>-32432.95675996115</v>
+        <v>-32642.68830665071</v>
       </c>
       <c r="G6" t="n">
-        <v>-111627.7937349482</v>
+        <v>-111627.7937349483</v>
       </c>
       <c r="H6" t="n">
-        <v>-64202.46819826667</v>
+        <v>-64202.46819826638</v>
       </c>
       <c r="I6" t="n">
-        <v>-64202.46819826617</v>
+        <v>-64202.46819826629</v>
       </c>
       <c r="J6" t="n">
-        <v>-277244.3857955521</v>
+        <v>-270728.1006409785</v>
       </c>
       <c r="K6" t="n">
-        <v>-70442.23660104937</v>
+        <v>-70442.23660104926</v>
       </c>
       <c r="L6" t="n">
-        <v>-125624.8255356701</v>
+        <v>-129673.6627461428</v>
       </c>
       <c r="M6" t="n">
-        <v>-106403.2976578893</v>
+        <v>-107454.9926690776</v>
       </c>
       <c r="N6" t="n">
-        <v>-64202.46819826629</v>
+        <v>-64202.46819826623</v>
       </c>
       <c r="O6" t="n">
-        <v>-91970.16224103767</v>
+        <v>-91970.16224103761</v>
       </c>
       <c r="P6" t="n">
-        <v>-64202.4681982662</v>
+        <v>-64202.46819826622</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26753,7 +26753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,16 +26811,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
+        <v>917.060736844378</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443783</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293129</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085236</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660682</v>
+        <v>78.07030221924613</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551352</v>
+        <v>17.58004954287424</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.7096175534641</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506526</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.3622249971637</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407243</v>
+        <v>117.1268713042801</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085236</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506526</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>257.8106791866508</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>231.1301286269951</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27430,7 +27430,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27442,7 +27442,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>131.5513083793528</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>36.03005425080659</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>60.39847475326046</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27594,16 +27594,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>194.58922683161</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>214.5076654101256</v>
       </c>
       <c r="C5" t="n">
-        <v>231.2524480094688</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>109.0041186694794</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>97.76330015091021</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27831,7 +27831,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.2921487349674</v>
+        <v>174.0667908094283</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>187.9189736350784</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>237.960593368303</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28017,7 +28017,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>114.1260999387508</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>224.8942834030727</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,40 +28719,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634530101</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28992,40 +28992,40 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634529973</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29217,13 +29217,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901135</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29542,13 +29542,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
+        <v>30.27223765901226</v>
+      </c>
+      <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="N29" t="n">
-        <v>86.65052755599572</v>
-      </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
@@ -29557,7 +29557,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000709</v>
+        <v>81.10808140892897</v>
       </c>
       <c r="K32" t="n">
-        <v>48.6599273883329</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455030928</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861254125</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="35">
@@ -30165,17 +30165,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>28.01250026485152</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,22 +30405,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="P40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30639,13 +30639,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668825</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30654,10 +30654,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.636002634527912</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30876,10 +30876,10 @@
         <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668903</v>
       </c>
       <c r="K46" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -32473,25 +32473,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -34705,13 +34705,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>162.8911480034108</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>508.7612304376686</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.704701200685251</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344373</v>
+        <v>400.5089558396891</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>93.07534195014198</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>83.90342515529923</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344373</v>
+        <v>286.2513980419847</v>
       </c>
       <c r="N6" t="n">
-        <v>446.7103228260038</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>303.8905267322988</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,13 +35258,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>484.6198681696878</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>414.9454010832019</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35495,10 +35495,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032134008</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594801</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36121,25 +36121,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36288,19 +36288,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724881</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101028</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>75.81849273220281</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>102.225266873466</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36762,16 +36762,16 @@
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,13 +36838,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N29" t="n">
-        <v>619.7932383009069</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261599</v>
+        <v>227.218963135018</v>
       </c>
       <c r="K32" t="n">
-        <v>411.2683678201125</v>
+        <v>475.3883602044898</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537689</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>259.4442692519041</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>242.5793493723293</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>300.9532312255021</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.819954147669</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>277.128169309789</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047504994</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37312,7 +37312,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,7 +37470,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>149.0995364028097</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835636</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>286.7682222146709</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,10 +37713,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>259.444269251904</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37950,10 +37950,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724861</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634529956</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133992</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
